--- a/Test_usando_il_modello_1.xlsx
+++ b/Test_usando_il_modello_1.xlsx
@@ -440,427 +440,427 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9.31835012686858</v>
+        <v>10.89835490497452</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>23.33686331428768</v>
+        <v>24.62750397673582</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>18.53788899702712</v>
+        <v>20.88289491432329</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>19.77987842682415</v>
+        <v>22.1714314217609</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>19.85315002040338</v>
+        <v>22.2459716575656</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>17.80985126440029</v>
+        <v>19.8627667704732</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>15.54511366759695</v>
+        <v>17.51806114281132</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>17.74160750081009</v>
+        <v>19.88765161502965</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>12.75886915008385</v>
+        <v>13.87313780430065</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>18.18416758229387</v>
+        <v>20.1905144245213</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>18.46291231605699</v>
+        <v>22.20159577114279</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12.07168883282321</v>
+        <v>14.61544706729242</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12.04203074844011</v>
+        <v>14.2277478471413</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>14.8827314731775</v>
+        <v>16.45236482271528</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>12.16227440898584</v>
+        <v>14.37093776810019</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>11.32327023810981</v>
+        <v>13.49500675559565</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>15.64628786693319</v>
+        <v>18.63777464806455</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>9.007534038280284</v>
+        <v>10.57455121237427</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>13.27174531224918</v>
+        <v>14.51716305219858</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>10.52921069154064</v>
+        <v>12.50492244635581</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>10.03092946636602</v>
+        <v>11.99880493412905</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>12.10913804228687</v>
+        <v>13.74415421457692</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>10.66147020394001</v>
+        <v>11.30057257976017</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>10.33104293084943</v>
+        <v>11.73164096260487</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6.821024366438479</v>
+        <v>8.036845902372278</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>9.454076970654768</v>
+        <v>9.994628589008698</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>11.57203974061861</v>
+        <v>13.53282529787364</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>7.659528612802177</v>
+        <v>8.377997630179237</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>7.295544172944545</v>
+        <v>8.432203183078542</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4.615518305957579</v>
+        <v>5.461042980876613</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>8.542441555569212</v>
+        <v>8.86906268077874</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>9.769405301845438</v>
+        <v>9.915064404167424</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>10.06867081396734</v>
+        <v>10.39602741959368</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>10.42799834267817</v>
+        <v>11.28706645135679</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>7.334117640250469</v>
+        <v>8.15975534162385</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>7.63634382330784</v>
+        <v>7.973164742951411</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>7.134281463329188</v>
+        <v>7.086360762773353</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>7.530320903543412</v>
+        <v>7.841572175589988</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5.685289524658373</v>
+        <v>5.981930266154478</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5.667645505391448</v>
+        <v>5.791030265471221</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>6.361421167140719</v>
+        <v>6.26027017159663</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>8.508917263714665</v>
+        <v>9.456097019158648</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>8.177463928117163</v>
+        <v>8.109963575079547</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>10.17106356164351</v>
+        <v>10.88650529577026</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>11.60531348700212</v>
+        <v>12.40542978044638</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>8.753126162313976</v>
+        <v>8.606416124972782</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>8.673324012981936</v>
+        <v>8.9217683513466</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>7.423914456493549</v>
+        <v>6.944412901889081</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>9.134336838431523</v>
+        <v>8.950332879895939</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>6.830973378921584</v>
+        <v>6.932683172820759</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>8.510238732469958</v>
+        <v>8.346943068934337</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>9.061718061007667</v>
+        <v>9.373061270529092</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>6.966321190468307</v>
+        <v>6.675810945434108</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>7.382023937317399</v>
+        <v>7.201672055830755</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>7.657708592703301</v>
+        <v>7.462466999753644</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>9.468249691043383</v>
+        <v>9.534936574661771</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>8.17762393176713</v>
+        <v>7.957001635313219</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>7.491904804643156</v>
+        <v>7.69888144684748</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>7.938822714009433</v>
+        <v>8.124326528385666</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>7.400934048314809</v>
+        <v>7.219530104558743</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>7.100326530459057</v>
+        <v>6.566454011678218</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>4.890783128401438</v>
+        <v>4.391146095249752</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>4.065345571764425</v>
+        <v>3.93816971401219</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>8.431824404246669</v>
+        <v>8.456032965627941</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>4.872811816697578</v>
+        <v>4.234850931000324</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>7.314314272361656</v>
+        <v>7.087035791471692</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>4.915296014763214</v>
+        <v>4.752798452809401</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>4.80960539297709</v>
+        <v>4.227564117610541</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>7.074279867414845</v>
+        <v>6.615625445471693</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>8.96042032783123</v>
+        <v>8.602491958863084</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>5.659082295837152</v>
+        <v>5.223301369830125</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>7.896056955782313</v>
+        <v>7.229241319596071</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>5.069965963082439</v>
+        <v>4.162270926113592</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>10.12438667886894</v>
+        <v>9.234831465217525</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>8.819609478891749</v>
+        <v>8.061591374610117</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>8.525189067680998</v>
+        <v>7.853951870358628</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>7.425864769572371</v>
+        <v>6.939010895201619</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>8.408236367691217</v>
+        <v>7.670603352320427</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>10.38086477371002</v>
+        <v>9.455493754549593</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>8.174103957133411</v>
+        <v>7.257951807573249</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>10.06732022407147</v>
+        <v>9.421277742469471</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>8.279056092015566</v>
+        <v>7.69714408247188</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>7.843260315208454</v>
+        <v>7.13286838164791</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>10.35014047930804</v>
+        <v>9.765923334843393</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>7.813032776740869</v>
+        <v>7.165612879813466</v>
       </c>
     </row>
   </sheetData>
